--- a/1.xlsx
+++ b/1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2106FACF-B3BF-4AFF-9A07-80A010F8D582}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAB199D-6A49-4FEF-9365-C9E834492BDB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
